--- a/docs/数据结构/Basic数据结构-基础数据.xlsx
+++ b/docs/数据结构/Basic数据结构-基础数据.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FBCE64-2826-442D-BB88-11F6AD2EDDDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7344596-8FF2-467F-8CAA-8C0C0526C4BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="822" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="822" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="581">
   <si>
     <t>类名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -310,10 +310,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>账号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>tenantCode.account联合唯一</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -756,10 +752,6 @@
   <si>
     <t>employee_id</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>用户权限策略</t>
@@ -2349,6 +2341,18 @@
   <si>
     <t>在同一租户下唯一</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册时的账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2972,10 +2976,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -2983,21 +2987,21 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>21</v>
@@ -3005,10 +3009,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>36</v>
@@ -3016,10 +3020,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>35</v>
@@ -3027,10 +3031,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>23</v>
@@ -3038,10 +3042,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>26</v>
@@ -3049,10 +3053,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>28</v>
@@ -3060,79 +3064,79 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>412</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>573</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -3629,18 +3633,18 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>4</v>
@@ -3661,10 +3665,10 @@
         <v>8</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3682,49 +3686,49 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>10</v>
@@ -3733,51 +3737,51 @@
         <v>52</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>160</v>
-      </c>
       <c r="E6" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>13</v>
@@ -3790,13 +3794,13 @@
     </row>
     <row r="8" spans="1:9" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>260</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>14</v>
@@ -3809,13 +3813,13 @@
     </row>
     <row r="9" spans="1:9" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>265</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>267</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>14</v>
@@ -3828,13 +3832,13 @@
     </row>
     <row r="10" spans="1:9" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>247</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>64</v>
@@ -3847,13 +3851,13 @@
     </row>
     <row r="11" spans="1:9" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>263</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>13</v>
@@ -3866,13 +3870,13 @@
     </row>
     <row r="12" spans="1:9" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>14</v>
@@ -3885,13 +3889,13 @@
     </row>
     <row r="13" spans="1:9" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>271</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>273</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>14</v>
@@ -3904,13 +3908,13 @@
     </row>
     <row r="14" spans="1:9" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>64</v>
@@ -3949,13 +3953,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -3965,7 +3969,7 @@
     </row>
     <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>4</v>
@@ -3986,10 +3990,10 @@
         <v>8</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4003,81 +4007,81 @@
         <v>38</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>178</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>13</v>
@@ -4090,13 +4094,13 @@
     </row>
     <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>260</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>14</v>
@@ -4109,13 +4113,13 @@
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>265</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>267</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>14</v>
@@ -4128,13 +4132,13 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>247</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>64</v>
@@ -4147,13 +4151,13 @@
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>263</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>13</v>
@@ -4166,13 +4170,13 @@
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>14</v>
@@ -4185,13 +4189,13 @@
     </row>
     <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>271</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>273</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>14</v>
@@ -4204,13 +4208,13 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>64</v>
@@ -4247,13 +4251,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>323</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -4263,7 +4267,7 @@
     </row>
     <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>4</v>
@@ -4284,7 +4288,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>9</v>
@@ -4305,11 +4309,11 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I3" s="8"/>
     </row>
@@ -4321,13 +4325,13 @@
         <v>39</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>45</v>
@@ -4346,10 +4350,10 @@
         <v>40</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -4361,16 +4365,16 @@
     </row>
     <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -4380,16 +4384,16 @@
     </row>
     <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>333</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>335</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -4399,16 +4403,16 @@
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -4418,19 +4422,19 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>340</v>
-      </c>
       <c r="E9" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -4441,13 +4445,13 @@
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>13</v>
@@ -4460,13 +4464,13 @@
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>260</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>14</v>
@@ -4479,13 +4483,13 @@
     </row>
     <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>265</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>267</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>14</v>
@@ -4498,13 +4502,13 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>247</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>64</v>
@@ -4517,13 +4521,13 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>263</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>13</v>
@@ -4536,13 +4540,13 @@
     </row>
     <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>14</v>
@@ -4555,13 +4559,13 @@
     </row>
     <row r="16" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>271</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>273</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>14</v>
@@ -4574,13 +4578,13 @@
     </row>
     <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>64</v>
@@ -4618,13 +4622,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -4634,7 +4638,7 @@
     </row>
     <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>4</v>
@@ -4655,7 +4659,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>9</v>
@@ -4676,11 +4680,11 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I3" s="8"/>
     </row>
@@ -4692,45 +4696,45 @@
         <v>39</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I5" s="8"/>
     </row>
@@ -4742,52 +4746,52 @@
         <v>40</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>365</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>367</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>369</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>371</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -4797,16 +4801,16 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>374</v>
-      </c>
       <c r="D9" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -4816,34 +4820,34 @@
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>376</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>378</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>13</v>
@@ -4856,13 +4860,13 @@
     </row>
     <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>260</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>14</v>
@@ -4875,13 +4879,13 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>265</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>267</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>14</v>
@@ -4894,13 +4898,13 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>247</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>64</v>
@@ -4913,13 +4917,13 @@
     </row>
     <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>263</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>13</v>
@@ -4932,13 +4936,13 @@
     </row>
     <row r="16" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>14</v>
@@ -4951,13 +4955,13 @@
     </row>
     <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>271</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>273</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>14</v>
@@ -4970,13 +4974,13 @@
     </row>
     <row r="18" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>64</v>
@@ -5013,13 +5017,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -5029,7 +5033,7 @@
     </row>
     <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>4</v>
@@ -5050,7 +5054,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>9</v>
@@ -5071,11 +5075,11 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I3" s="8"/>
     </row>
@@ -5087,13 +5091,13 @@
         <v>39</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>45</v>
@@ -5106,26 +5110,26 @@
     </row>
     <row r="5" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>385</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>387</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I5" s="8"/>
     </row>
@@ -5137,10 +5141,10 @@
         <v>40</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -5152,13 +5156,13 @@
     </row>
     <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>13</v>
@@ -5171,13 +5175,13 @@
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>260</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>14</v>
@@ -5190,13 +5194,13 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>265</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>267</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>14</v>
@@ -5209,13 +5213,13 @@
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>247</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>64</v>
@@ -5228,13 +5232,13 @@
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>263</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>13</v>
@@ -5247,13 +5251,13 @@
     </row>
     <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>14</v>
@@ -5266,13 +5270,13 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>271</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>273</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>14</v>
@@ -5285,13 +5289,13 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>64</v>
@@ -5329,13 +5333,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>415</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>417</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -5345,7 +5349,7 @@
     </row>
     <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>4</v>
@@ -5366,7 +5370,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>9</v>
@@ -5387,11 +5391,11 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I3" s="8"/>
     </row>
@@ -5406,17 +5410,17 @@
         <v>24</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I4" s="8"/>
     </row>
@@ -5431,34 +5435,34 @@
         <v>25</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>30</v>
@@ -5466,22 +5470,22 @@
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>31</v>
@@ -5489,42 +5493,42 @@
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>423</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>425</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -5533,13 +5537,13 @@
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>20</v>
@@ -5554,19 +5558,19 @@
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>136</v>
-      </c>
       <c r="D11" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -5577,16 +5581,16 @@
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>427</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>429</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -5596,13 +5600,13 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>13</v>
@@ -5615,13 +5619,13 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>260</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>14</v>
@@ -5634,13 +5638,13 @@
     </row>
     <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>265</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>267</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>14</v>
@@ -5653,13 +5657,13 @@
     </row>
     <row r="16" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>247</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>64</v>
@@ -5672,13 +5676,13 @@
     </row>
     <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>263</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>13</v>
@@ -5691,13 +5695,13 @@
     </row>
     <row r="18" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>14</v>
@@ -5710,13 +5714,13 @@
     </row>
     <row r="19" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>271</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>273</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>14</v>
@@ -5729,13 +5733,13 @@
     </row>
     <row r="20" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>64</v>
@@ -5772,13 +5776,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -5788,7 +5792,7 @@
     </row>
     <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>4</v>
@@ -5809,7 +5813,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>9</v>
@@ -5830,29 +5834,29 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>45</v>
@@ -5865,16 +5869,16 @@
     </row>
     <row r="5" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -5886,16 +5890,16 @@
     </row>
     <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -5907,16 +5911,16 @@
     </row>
     <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -5928,16 +5932,16 @@
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -5946,24 +5950,24 @@
         <v>45</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -5974,34 +5978,34 @@
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>13</v>
@@ -6014,13 +6018,13 @@
     </row>
     <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>260</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>14</v>
@@ -6033,13 +6037,13 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>265</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>267</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>14</v>
@@ -6052,16 +6056,16 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="D14" s="10" t="s">
         <v>246</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>248</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -6071,13 +6075,13 @@
     </row>
     <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>263</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>13</v>
@@ -6090,13 +6094,13 @@
     </row>
     <row r="16" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>14</v>
@@ -6109,13 +6113,13 @@
     </row>
     <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>271</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>273</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>14</v>
@@ -6128,16 +6132,16 @@
     </row>
     <row r="18" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -6172,13 +6176,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>489</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -6188,7 +6192,7 @@
     </row>
     <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>4</v>
@@ -6209,7 +6213,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>9</v>
@@ -6230,29 +6234,29 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>45</v>
@@ -6265,16 +6269,16 @@
     </row>
     <row r="5" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -6286,22 +6290,22 @@
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>30</v>
@@ -6309,22 +6313,22 @@
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>31</v>
@@ -6332,19 +6336,19 @@
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -6353,13 +6357,13 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>20</v>
@@ -6374,23 +6378,23 @@
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>462</v>
-      </c>
       <c r="E10" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>45</v>
@@ -6399,16 +6403,16 @@
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -6420,19 +6424,19 @@
     </row>
     <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -6441,19 +6445,19 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -6462,34 +6466,34 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>13</v>
@@ -6502,13 +6506,13 @@
     </row>
     <row r="16" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>260</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>14</v>
@@ -6521,13 +6525,13 @@
     </row>
     <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>265</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>267</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>14</v>
@@ -6540,16 +6544,16 @@
     </row>
     <row r="18" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="D18" s="10" t="s">
         <v>246</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>248</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -6559,13 +6563,13 @@
     </row>
     <row r="19" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>263</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>13</v>
@@ -6578,13 +6582,13 @@
     </row>
     <row r="20" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>14</v>
@@ -6597,13 +6601,13 @@
     </row>
     <row r="21" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>271</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>273</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>14</v>
@@ -6616,16 +6620,16 @@
     </row>
     <row r="22" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -6655,13 +6659,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>520</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>522</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="2"/>
@@ -6672,7 +6676,7 @@
     </row>
     <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>4</v>
@@ -6693,10 +6697,10 @@
         <v>8</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -6704,17 +6708,17 @@
         <v>37</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>525</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>527</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
@@ -6724,41 +6728,41 @@
     </row>
     <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>529</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>531</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>535</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>537</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -6768,16 +6772,16 @@
     </row>
     <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>538</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>540</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -6787,16 +6791,16 @@
     </row>
     <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="D7" s="10" t="s">
         <v>542</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>544</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -6806,36 +6810,36 @@
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>27</v>
@@ -6848,16 +6852,16 @@
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="D10" s="10" t="s">
         <v>553</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>555</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -6867,16 +6871,16 @@
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -6886,16 +6890,16 @@
     </row>
     <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -6905,16 +6909,16 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>560</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>562</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -6924,16 +6928,16 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>565</v>
-      </c>
       <c r="D14" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -6943,13 +6947,13 @@
     </row>
     <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>566</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>568</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>14</v>
@@ -6962,16 +6966,16 @@
     </row>
     <row r="16" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="D16" s="10" t="s">
         <v>570</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>572</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -7006,10 +7010,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>61</v>
@@ -7022,7 +7026,7 @@
     </row>
     <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>4</v>
@@ -7043,7 +7047,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>9</v>
@@ -7064,14 +7068,14 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -7088,14 +7092,14 @@
         <v>52</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I4" s="8"/>
     </row>
@@ -7122,22 +7126,22 @@
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>134</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>34</v>
@@ -7145,13 +7149,13 @@
     </row>
     <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>13</v>
@@ -7164,13 +7168,13 @@
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>260</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>14</v>
@@ -7183,13 +7187,13 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>265</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>267</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>14</v>
@@ -7202,13 +7206,13 @@
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>247</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>64</v>
@@ -7221,13 +7225,13 @@
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>263</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>13</v>
@@ -7240,13 +7244,13 @@
     </row>
     <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>14</v>
@@ -7259,13 +7263,13 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>271</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>273</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>14</v>
@@ -7278,13 +7282,13 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>64</v>
@@ -7306,7 +7310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -7322,13 +7326,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>253</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="2"/>
@@ -7339,10 +7343,10 @@
     </row>
     <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>2</v>
@@ -7360,10 +7364,10 @@
         <v>8</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -7374,106 +7378,106 @@
         <v>42</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="D6" s="10" t="s">
         <v>242</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>244</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>280</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>282</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -7483,58 +7487,58 @@
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>283</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>285</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>277</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>279</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>435</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>437</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -7544,16 +7548,16 @@
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>442</v>
-      </c>
       <c r="D11" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -7563,16 +7567,16 @@
     </row>
     <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="D12" s="10" t="s">
         <v>513</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>515</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -7582,16 +7586,16 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="D13" s="10" t="s">
         <v>517</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>519</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -7601,16 +7605,16 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>255</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>257</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -7620,13 +7624,13 @@
     </row>
     <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>260</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>14</v>
@@ -7639,13 +7643,13 @@
     </row>
     <row r="16" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>265</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>267</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>14</v>
@@ -7658,16 +7662,16 @@
     </row>
     <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="D17" s="10" t="s">
         <v>246</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>248</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -7677,16 +7681,16 @@
     </row>
     <row r="18" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>263</v>
-      </c>
       <c r="D18" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -7696,13 +7700,13 @@
     </row>
     <row r="19" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>14</v>
@@ -7715,13 +7719,13 @@
     </row>
     <row r="20" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>271</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>273</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>14</v>
@@ -7734,16 +7738,16 @@
     </row>
     <row r="21" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -7762,8 +7766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7778,10 +7782,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>15</v>
@@ -7795,7 +7799,7 @@
     </row>
     <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>4</v>
@@ -7816,7 +7820,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>9</v>
@@ -7837,50 +7841,50 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>147</v>
-      </c>
       <c r="E4" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" s="12" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>20</v>
@@ -7889,7 +7893,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>22</v>
@@ -7897,13 +7901,13 @@
     </row>
     <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>150</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>14</v>
@@ -7912,28 +7916,28 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>134</v>
-      </c>
       <c r="D7" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>34</v>
@@ -7941,13 +7945,13 @@
     </row>
     <row r="8" spans="1:9" s="12" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>20</v>
@@ -7956,10 +7960,31 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -7975,7 +8000,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A6" sqref="A6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7991,10 +8016,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>67</v>
@@ -8008,7 +8033,7 @@
     </row>
     <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>4</v>
@@ -8029,7 +8054,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>9</v>
@@ -8050,22 +8075,22 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>19</v>
@@ -8074,26 +8099,26 @@
         <v>68</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>69</v>
@@ -8102,7 +8127,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I5" s="8"/>
     </row>
@@ -8113,26 +8138,26 @@
       <c r="B6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>183</v>
+      <c r="C6" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>65</v>
@@ -8144,19 +8169,19 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>145</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>13</v>
@@ -8165,18 +8190,18 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>10</v>
@@ -8185,30 +8210,30 @@
         <v>52</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>62</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>13</v>
@@ -8221,13 +8246,13 @@
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>260</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>14</v>
@@ -8240,13 +8265,13 @@
     </row>
     <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>265</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>267</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>14</v>
@@ -8259,13 +8284,13 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>247</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>64</v>
@@ -8278,13 +8303,13 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>263</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>13</v>
@@ -8297,13 +8322,13 @@
     </row>
     <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>14</v>
@@ -8316,13 +8341,13 @@
     </row>
     <row r="16" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>271</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>273</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>14</v>
@@ -8335,13 +8360,13 @@
     </row>
     <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>64</v>
@@ -8379,13 +8404,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="2"/>
@@ -8396,7 +8421,7 @@
     </row>
     <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>4</v>
@@ -8417,7 +8442,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>9</v>
@@ -8438,22 +8463,22 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>19</v>
@@ -8462,28 +8487,28 @@
         <v>18</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>45</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>66</v>
@@ -8496,13 +8521,13 @@
     </row>
     <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>54</v>
@@ -8517,16 +8542,16 @@
     </row>
     <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -8536,16 +8561,16 @@
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -8555,16 +8580,16 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>434</v>
-      </c>
       <c r="D9" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -8574,16 +8599,16 @@
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>288</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>290</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -8593,13 +8618,13 @@
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>13</v>
@@ -8612,13 +8637,13 @@
     </row>
     <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>260</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>14</v>
@@ -8631,13 +8656,13 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>265</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>267</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>14</v>
@@ -8650,13 +8675,13 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>247</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>64</v>
@@ -8669,13 +8694,13 @@
     </row>
     <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>263</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>13</v>
@@ -8688,13 +8713,13 @@
     </row>
     <row r="16" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>14</v>
@@ -8707,13 +8732,13 @@
     </row>
     <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>271</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>273</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>14</v>
@@ -8726,13 +8751,13 @@
     </row>
     <row r="18" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>64</v>
@@ -8770,13 +8795,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="2"/>
@@ -8787,7 +8812,7 @@
     </row>
     <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>4</v>
@@ -8808,7 +8833,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>9</v>
@@ -8829,14 +8854,14 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -8856,7 +8881,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I4" s="8"/>
     </row>
@@ -8877,48 +8902,48 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>85</v>
-      </c>
       <c r="E6" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>62</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>13</v>
@@ -8931,13 +8956,13 @@
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>260</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>14</v>
@@ -8950,13 +8975,13 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>265</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>267</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>14</v>
@@ -8969,13 +8994,13 @@
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>247</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>64</v>
@@ -8988,13 +9013,13 @@
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>263</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>13</v>
@@ -9007,13 +9032,13 @@
     </row>
     <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>14</v>
@@ -9026,13 +9051,13 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>271</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>273</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>14</v>
@@ -9045,13 +9070,13 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>64</v>
@@ -9089,10 +9114,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>26</v>
@@ -9106,7 +9131,7 @@
     </row>
     <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>4</v>
@@ -9127,7 +9152,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>9</v>
@@ -9148,14 +9173,14 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -9172,14 +9197,14 @@
         <v>63</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I4" s="8"/>
     </row>
@@ -9197,71 +9222,71 @@
         <v>14</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="E6" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>10</v>
@@ -9273,48 +9298,48 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>59</v>
@@ -9323,19 +9348,19 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>13</v>
@@ -9348,13 +9373,13 @@
     </row>
     <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>260</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>14</v>
@@ -9367,13 +9392,13 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>265</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>267</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>14</v>
@@ -9386,13 +9411,13 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>247</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>64</v>
@@ -9405,13 +9430,13 @@
     </row>
     <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>263</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>13</v>
@@ -9424,13 +9449,13 @@
     </row>
     <row r="16" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>14</v>
@@ -9443,13 +9468,13 @@
     </row>
     <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>271</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>273</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>14</v>
@@ -9462,13 +9487,13 @@
     </row>
     <row r="18" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>64</v>
@@ -9506,10 +9531,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>28</v>
@@ -9523,7 +9548,7 @@
     </row>
     <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>4</v>
@@ -9544,7 +9569,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>9</v>
@@ -9565,14 +9590,14 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -9589,29 +9614,29 @@
         <v>58</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>189</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -9624,7 +9649,7 @@
         <v>40</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>25</v>
@@ -9636,44 +9661,44 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>20</v>
@@ -9682,16 +9707,16 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>33</v>
@@ -9700,34 +9725,34 @@
         <v>60</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>29</v>
@@ -9740,16 +9765,16 @@
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="8"/>
@@ -9761,22 +9786,22 @@
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>134</v>
-      </c>
       <c r="D12" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>34</v>
@@ -9784,34 +9809,34 @@
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>136</v>
-      </c>
       <c r="D13" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>13</v>
@@ -9824,13 +9849,13 @@
     </row>
     <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>260</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>14</v>
@@ -9843,13 +9868,13 @@
     </row>
     <row r="16" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>265</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>267</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>14</v>
@@ -9862,13 +9887,13 @@
     </row>
     <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>247</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>64</v>
@@ -9881,13 +9906,13 @@
     </row>
     <row r="18" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>263</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
@@ -9900,13 +9925,13 @@
     </row>
     <row r="19" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>14</v>
@@ -9919,13 +9944,13 @@
     </row>
     <row r="20" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>271</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>273</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>14</v>
@@ -9938,13 +9963,13 @@
     </row>
     <row r="21" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>64</v>

--- a/docs/数据结构/Basic数据结构-基础数据.xlsx
+++ b/docs/数据结构/Basic数据结构-基础数据.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7344596-8FF2-467F-8CAA-8C0C0526C4BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8A76F0-09C7-44EE-98F3-49023C770E02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="822" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="822" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="586">
   <si>
     <t>类名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2353,6 +2353,26 @@
   <si>
     <t>用户注册时的账号</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iconFileData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_file_data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储图标文件的字符串数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标文件数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5314,10 +5334,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5598,37 +5618,39 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>253</v>
+        <v>581</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>13</v>
+        <v>582</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>584</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="I13" s="8" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -5638,13 +5660,13 @@
     </row>
     <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>14</v>
@@ -5657,16 +5679,16 @@
     </row>
     <row r="16" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -5676,16 +5698,16 @@
     </row>
     <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -5695,16 +5717,16 @@
     </row>
     <row r="18" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -5714,13 +5736,13 @@
     </row>
     <row r="19" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>14</v>
@@ -5733,16 +5755,16 @@
     </row>
     <row r="20" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -5750,10 +5772,29 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
     </row>
+    <row r="21" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7766,7 +7807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:I9"/>
     </sheetView>
   </sheetViews>

--- a/docs/数据结构/Basic数据结构-基础数据.xlsx
+++ b/docs/数据结构/Basic数据结构-基础数据.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8A76F0-09C7-44EE-98F3-49023C770E02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BEB742-A40F-4ED1-BB40-32C157957D87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="822" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="822" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,14 @@
     <sheet name="国家" sheetId="17" r:id="rId16"/>
     <sheet name="行政区域" sheetId="18" r:id="rId17"/>
     <sheet name="用户邮件提醒" sheetId="19" r:id="rId18"/>
+    <sheet name="用户收藏的菜单" sheetId="20" r:id="rId19"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="600">
   <si>
     <t>类名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2373,6 +2374,62 @@
   <si>
     <t>图标文件数据</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserMenu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_menu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户收藏的菜单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_menu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id,menu_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[user_].[id]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>menuId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[menu].[id]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserMenu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2553,7 +2610,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2601,6 +2658,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2972,7 +3041,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3157,6 +3226,17 @@
       </c>
       <c r="C16" s="3" t="s">
         <v>573</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -3182,6 +3262,7 @@
     <hyperlink ref="B14" location="功能项组!A1" display="feature_group" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="B15" location="菜单!A1" display="menu" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="B16" location="用户邮件提醒!A1" display="user_email_alert" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B17" location="用户收藏的菜单!A1" display="user_menu" xr:uid="{3F9EBBF8-4360-4844-BFE3-2BF9E3239D2E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5336,7 +5417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -6689,7 +6770,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7023,6 +7104,306 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04FB381-CD02-46CB-96A6-EB2B3C1761EC}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.625" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>599</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>589</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>588</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/docs/数据结构/Basic数据结构-基础数据.xlsx
+++ b/docs/数据结构/Basic数据结构-基础数据.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BEB742-A40F-4ED1-BB40-32C157957D87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B403924-0BB7-4480-9F99-435A93777332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="822" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="822" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="604">
   <si>
     <t>类名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2429,6 +2429,22 @@
   </si>
   <si>
     <t>UserMenu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>portrait</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像的文件存储</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3041,7 +3057,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5418,7 +5434,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7116,8 +7132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04FB381-CD02-46CB-96A6-EB2B3C1761EC}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8808,10 +8824,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9040,35 +9056,37 @@
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>253</v>
+        <v>600</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>13</v>
+        <v>600</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>602</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="I11" s="8" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -9078,13 +9096,13 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>14</v>
@@ -9097,16 +9115,16 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -9116,16 +9134,16 @@
     </row>
     <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -9135,16 +9153,16 @@
     </row>
     <row r="16" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -9154,13 +9172,13 @@
     </row>
     <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>14</v>
@@ -9173,22 +9191,41 @@
     </row>
     <row r="18" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/docs/数据结构/Basic数据结构-基础数据.xlsx
+++ b/docs/数据结构/Basic数据结构-基础数据.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B403924-0BB7-4480-9F99-435A93777332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8359E112-12BC-41E6-8846-E41A58DB15DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="822" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="822" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="608">
   <si>
     <t>类名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2445,6 +2445,22 @@
   </si>
   <si>
     <t>头像的文件存储</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>税号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -7746,10 +7762,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7925,37 +7941,35 @@
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>281</v>
+        <v>604</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>281</v>
+        <v>605</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>282</v>
+        <v>606</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>283</v>
+        <v>607</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>274</v>
-      </c>
+      <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -7967,32 +7981,34 @@
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>437</v>
+        <v>275</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>436</v>
+        <v>275</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>433</v>
+        <v>276</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>435</v>
+        <v>277</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>274</v>
+      </c>
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>435</v>
@@ -8005,16 +8021,16 @@
     </row>
     <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>510</v>
+        <v>439</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>511</v>
+        <v>438</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>512</v>
+        <v>440</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>513</v>
+        <v>435</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -8024,16 +8040,16 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -8043,16 +8059,16 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>253</v>
+        <v>514</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>254</v>
+        <v>515</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>262</v>
+        <v>516</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>255</v>
+        <v>517</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -8062,16 +8078,16 @@
     </row>
     <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -8081,13 +8097,13 @@
     </row>
     <row r="16" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>14</v>
@@ -8100,16 +8116,16 @@
     </row>
     <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>246</v>
+        <v>14</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -8119,16 +8135,16 @@
     </row>
     <row r="18" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -8138,16 +8154,16 @@
     </row>
     <row r="19" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -8157,13 +8173,13 @@
     </row>
     <row r="20" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>14</v>
@@ -8176,22 +8192,41 @@
     </row>
     <row r="21" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>246</v>
+        <v>14</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -8826,7 +8861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
